--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF5E2F3-8129-4D3C-8032-46FC4F04C1C5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE0C185-BA3A-4AFC-B618-C31ECF6B0D31}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -34,9 +34,6 @@
     <t>补发，撤销，意见的修改（同收文流程）</t>
   </si>
   <si>
-    <t>流转节点 科长选择人之后未流转到对应的办理人员（已修改）</t>
-  </si>
-  <si>
     <t>3、收文</t>
   </si>
   <si>
@@ -79,24 +76,15 @@
     <t>360外出申请页面不展示</t>
   </si>
   <si>
-    <t>10.附件按钮无反应</t>
-  </si>
-  <si>
     <t>11、日程</t>
   </si>
   <si>
     <t>日历页面查看日程信息页面建议添加修改、删除按钮</t>
   </si>
   <si>
-    <t>12.邮件</t>
-  </si>
-  <si>
     <t>邮件的正文编辑了排版，查看详细时显示已排版的数据</t>
   </si>
   <si>
-    <t>13、外出</t>
-  </si>
-  <si>
     <t>临时加急的外出流程（后续完成处理方案）</t>
   </si>
   <si>
@@ -202,6 +190,18 @@
   </si>
   <si>
     <t>1、邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流转节点 科长选择人之后未流转到对应的办理人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改待提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +221,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -297,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -309,13 +316,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -378,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -413,7 +421,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -598,39 +606,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.4140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="46.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.08203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>52</v>
+      <c r="A2" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -642,45 +650,48 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>31</v>
+      <c r="A6" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -688,6 +699,9 @@
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
@@ -698,10 +712,10 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -710,253 +724,247 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>32</v>
+      <c r="A39" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A14"/>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE0C185-BA3A-4AFC-B618-C31ECF6B0D31}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0171E9-E0ED-4D5E-8E72-2108C3D7E040}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="56">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -202,6 +202,22 @@
   </si>
   <si>
     <t>已修改待提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗机构附件上传不了（可能是不同的ip地址造成的，客户希望这周可以修复）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,6 +225,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,12 +251,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -304,19 +329,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -325,6 +348,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,358 +641,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.08203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="D1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="C14" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+      <c r="C32" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+      <c r="C33" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
+    <row r="35" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
       <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
       <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
+      <c r="C40" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
       <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
       <c r="B42" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="7">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0171E9-E0ED-4D5E-8E72-2108C3D7E040}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57B7C6E-805A-4367-8087-2DA2D359D38C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="61">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -67,9 +67,6 @@
     <t>发文流程图的修改</t>
   </si>
   <si>
-    <t>发文流程节点(信息公开管理员)退回可以选择退回节点</t>
-  </si>
-  <si>
     <t>8.流程表单选择人员，人员回显排序问题</t>
   </si>
   <si>
@@ -218,6 +215,30 @@
   </si>
   <si>
     <t>医疗机构附件上传不了（可能是不同的ip地址造成的，客户希望这周可以修复）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流转节点科长发给多个科员办理，科员办完提交科长后，科长收到多条代办信息（实际科长应该只有一条代办信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收文为杂文的文件在杂文文件夹里面没有查到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归档管理菜单查询的数据应该为已归档的数据，然后点击办理可以补发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘老师办理归档的操作记录在办理情况不要展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发文流程节点(信息公开管理员)退回可以选择退回节点（周老师提出的意见）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +247,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -340,16 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -360,6 +372,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,399 +662,499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>48</v>
+      <c r="A2" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
+      <c r="A6" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>29</v>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>29</v>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="4">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30">
+        <v>13916375703</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="1" t="s">
+      <c r="C36" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="1" t="s">
+      <c r="C37" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="1" t="s">
+      <c r="D38" s="4">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C39" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="4">
+        <v>43393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="1" t="s">
+      <c r="B49" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="4">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="7">
-        <v>43396</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A48"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A6:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.79998168889431442"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.79998168889431442"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.79998168889431442"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57B7C6E-805A-4367-8087-2DA2D359D38C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676E0E02-EDA0-4480-9DB9-1C81AEF70AF4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收文为杂文的文件在杂文文件夹里面没有查到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +235,14 @@
   </si>
   <si>
     <t>发文流程节点(信息公开管理员)退回可以选择退回节点（周老师提出的意见）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科长审核节点可以退回到申请人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -381,6 +391,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -821,7 +834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
         <v>36</v>
@@ -830,7 +843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
         <v>38</v>
@@ -839,7 +852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -848,13 +861,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>55</v>
@@ -863,39 +876,39 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
         <v>35</v>
@@ -904,12 +917,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
         <v>34</v>
@@ -918,7 +931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
         <v>9</v>
@@ -927,68 +940,62 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
+    <row r="30" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G30">
-        <v>13916375703</v>
-      </c>
-      <c r="H30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="4">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="C33" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>28</v>
@@ -997,117 +1004,137 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="4">
-        <v>43392</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D39" s="4">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
       <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D42" s="4">
         <v>43393</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D50" s="4">
         <v>43396</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A16:A24"/>
     <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A27:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1118,16 +1145,8 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="H42">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1138,7 +1157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1146,7 +1165,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676E0E02-EDA0-4480-9DB9-1C81AEF70AF4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EC26D1-463F-4A71-86D5-95245F7B1DA8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>科长审核节点可以退回到申请人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加印章类型：行政章、党办章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一个节点的办理人根据印章类型设置办理人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +304,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -383,6 +401,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -392,7 +413,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -709,7 +733,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -720,13 +744,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
@@ -735,7 +759,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
@@ -744,7 +768,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -755,7 +779,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
@@ -764,7 +788,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
@@ -773,7 +797,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -782,13 +806,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
@@ -797,13 +821,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
@@ -812,7 +836,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
@@ -821,10 +845,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -835,7 +859,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
@@ -844,7 +868,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
@@ -853,7 +877,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -862,13 +886,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
@@ -877,7 +901,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
@@ -886,7 +910,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
@@ -895,7 +919,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
@@ -904,12 +928,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
@@ -918,212 +942,230 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="4">
+        <v>43392</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D32" s="4">
         <v>43394</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+    <row r="33" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="C34" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D40" s="4">
         <v>43392</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D43" s="4">
         <v>43393</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="1" t="s">
-        <v>20</v>
+      <c r="C46" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="11"/>
+      <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="11"/>
+      <c r="B50" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D51" s="4">
         <v>43396</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A16:A24"/>
     <mergeCell ref="A6:A15"/>
-    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A27:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
@@ -1146,7 +1188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H43">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EC26D1-463F-4A71-86D5-95245F7B1DA8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DACFA4D-DFBB-4C05-AD7B-F1E321E778E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -52,12 +52,6 @@
     <t>党办流程:党办： 书记章，党工委章，纪工委的章</t>
   </si>
   <si>
-    <t>6、来电</t>
-  </si>
-  <si>
-    <t>7、发文</t>
-  </si>
-  <si>
     <t>办公室审核节点修改文件名称、添加附件上传</t>
   </si>
   <si>
@@ -67,15 +61,9 @@
     <t>发文流程图的修改</t>
   </si>
   <si>
-    <t>8.流程表单选择人员，人员回显排序问题</t>
-  </si>
-  <si>
     <t>360外出申请页面不展示</t>
   </si>
   <si>
-    <t>11、日程</t>
-  </si>
-  <si>
     <t>日历页面查看日程信息页面建议添加修改、删除按钮</t>
   </si>
   <si>
@@ -88,9 +76,6 @@
     <t>蒋倩倩，朱燕红， 胡长虹</t>
   </si>
   <si>
-    <t>印章科长审核可以修改选择印章，点击提交选择下个节点人员</t>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.外出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已修改</t>
   </si>
   <si>
@@ -234,27 +215,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发文流程节点(信息公开管理员)退回可以选择退回节点（周老师提出的意见）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>科长审核节点可以退回到申请人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加印章类型：行政章、党办章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最后一个节点的办理人根据印章类型设置办理人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程表单选择人员，人员回显排序问题</t>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发文流程节点(信息公开管理员)退回可以选择退回节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫监所的印章申请：在办公室下面添加一个账号给卫监所使用，此账号只给印章的菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,13 +295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -401,8 +387,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -413,10 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -717,30 +700,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -752,48 +735,48 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -802,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -814,10 +797,10 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -829,51 +812,57 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -882,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,7 +883,7 @@
     <row r="21" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D21" s="4">
         <v>43396</v>
@@ -903,7 +892,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D22" s="4">
         <v>43396</v>
@@ -912,7 +901,7 @@
     <row r="23" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D23" s="4">
         <v>43396</v>
@@ -921,32 +910,38 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D24" s="4">
         <v>43396</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+      <c r="A26" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>28</v>
+        <v>54</v>
+      </c>
+      <c r="D26" s="4">
+        <v>43392</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A27" s="10"/>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D27" s="4">
         <v>43392</v>
@@ -955,217 +950,185 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="4">
-        <v>43392</v>
+        <v>28</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43394</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="11"/>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="4">
+        <v>43396</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="4">
-        <v>43394</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
+      <c r="A32" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D37" s="4">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C40" s="12"/>
       <c r="D40" s="4">
-        <v>43392</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>50</v>
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="11"/>
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="4">
-        <v>43393</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>28</v>
+    </row>
+    <row r="46" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="4">
+        <v>43396</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="4">
-        <v>43396</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A50"/>
+  <mergeCells count="7">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="A41:A44"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A16:A24"/>
     <mergeCell ref="A6:A15"/>
-    <mergeCell ref="A27:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
@@ -1188,7 +1151,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H40">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DACFA4D-DFBB-4C05-AD7B-F1E321E778E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05E7950-5D50-4808-A3C8-90F730A52627}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,17 +390,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -716,7 +716,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -727,13 +727,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
@@ -751,7 +751,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -762,7 +762,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
@@ -780,7 +780,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -789,13 +789,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -804,13 +804,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
@@ -819,7 +819,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
@@ -837,7 +837,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -848,7 +848,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
@@ -857,7 +857,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -866,7 +866,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,13 +875,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
@@ -890,7 +890,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -899,7 +899,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
@@ -928,7 +928,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -939,7 +939,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
@@ -948,7 +948,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
@@ -957,7 +957,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,7 +966,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="1" t="s">
         <v>53</v>
       </c>
@@ -984,12 +984,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
@@ -998,7 +998,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
@@ -1007,7 +1007,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
@@ -1016,7 +1016,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
@@ -1025,7 +1025,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,7 +1034,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
@@ -1043,7 +1043,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
@@ -1056,18 +1056,18 @@
       <c r="B40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="4">
         <v>43396</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1076,7 +1076,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
@@ -1096,7 +1096,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05E7950-5D50-4808-A3C8-90F730A52627}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3874F587-F9E6-4744-8DEA-4F4EDFA130C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -167,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,6 +243,14 @@
   </si>
   <si>
     <t>卫监所的印章申请：在办公室下面添加一个账号给卫监所使用，此账号只给印章的菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件箱列表查询数据有误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -709,15 +713,15 @@
         <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>36</v>
@@ -742,29 +746,35 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43396</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -773,7 +783,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -782,7 +792,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -791,234 +801,258 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="4">
-        <v>43396</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D23" s="4">
         <v>43396</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+      <c r="E23" s="4">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="C26" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="4">
-        <v>43392</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D27" s="4">
         <v>43392</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="4">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43392</v>
+      </c>
+      <c r="E28" s="4">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="4">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="4">
         <v>43394</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>22</v>
+    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="4">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>22</v>
@@ -1027,112 +1061,121 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="4">
-        <v>43392</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="4">
+      <c r="C40" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>22</v>
+      <c r="A42" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="11"/>
+      <c r="B45" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="4">
+    <row r="47" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="D1:D5 D7:D1048576">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1140,7 +1183,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1151,8 +1194,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="H41">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1161,8 +1204,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1170,12 +1213,142 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color theme="7" tint="0.79998168889431442"/>
         <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E5 E7:E22 E24:E26 E29:E30 E32:E1048576">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3874F587-F9E6-4744-8DEA-4F4EDFA130C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84871151-DB1D-4330-BFD7-81CAC00ED94A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$49</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -59,9 +62,6 @@
   </si>
   <si>
     <t>发文流程图的修改</t>
-  </si>
-  <si>
-    <t>360外出申请页面不展示</t>
   </si>
   <si>
     <t>日历页面查看日程信息页面建议添加修改、删除按钮</t>
@@ -284,7 +284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -405,6 +411,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -704,30 +716,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>61</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -738,29 +750,29 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
+      <c r="B4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>41</v>
+      <c r="B6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="D6" s="4">
         <v>43396</v>
@@ -771,40 +783,40 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
+      <c r="B8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
-      <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
+      <c r="B9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -815,11 +827,11 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
+      <c r="B12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -830,67 +842,67 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
+      <c r="B14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
+      <c r="B15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
+      <c r="B16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
+      <c r="B17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>22</v>
+      <c r="B18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>22</v>
+      <c r="B19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>22</v>
+      <c r="C20" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -902,7 +914,7 @@
     <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="4">
         <v>43396</v>
@@ -911,10 +923,10 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="4">
         <v>43396</v>
@@ -926,7 +938,7 @@
     <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="4">
         <v>43396</v>
@@ -935,7 +947,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="4">
         <v>43396</v>
@@ -945,11 +957,11 @@
       <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>22</v>
+      <c r="B26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -957,10 +969,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="4">
         <v>43392</v>
@@ -972,10 +984,10 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="4">
         <v>43392</v>
@@ -986,29 +998,29 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>22</v>
+      <c r="B29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>22</v>
+      <c r="C30" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="4">
         <v>43394</v>
@@ -1020,7 +1032,7 @@
     <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" s="4">
         <v>43396</v>
@@ -1028,43 +1040,43 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
-      <c r="B34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>22</v>
+      <c r="B34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
-      <c r="B35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>22</v>
+      <c r="B35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
-      <c r="B36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="13" t="s">
         <v>22</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
-      <c r="B37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>22</v>
+      <c r="B37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1082,7 +1094,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1091,13 +1103,13 @@
         <v>12</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="4">
@@ -1106,72 +1118,67 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
-      <c r="B43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>22</v>
+      <c r="B43" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
+      <c r="A45" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="4">
+    <row r="46" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="4">
         <v>43396</v>
       </c>
     </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="11"/>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>17</v>
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C49" xr:uid="{614BDEE0-955C-421E-9A3D-86656740B594}"/>
   <mergeCells count="7">
-    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="A33:A41"/>
-    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A42:A44"/>
     <mergeCell ref="A17:A25"/>
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D5 D7:D1048576">

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84871151-DB1D-4330-BFD7-81CAC00ED94A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8DFCA3-E5A0-4186-BABA-914FFFDEA338}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="64">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -251,6 +251,14 @@
   </si>
   <si>
     <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗结构院长申请提示错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗机构反映邮件发送不了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -403,20 +417,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -732,46 +752,46 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="4">
@@ -782,212 +802,207 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="C17" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D22" s="4">
-        <v>43396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D23" s="4">
         <v>43396</v>
       </c>
-      <c r="E23" s="4">
-        <v>43396</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D24" s="4">
         <v>43396</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+      <c r="E24" s="4">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="4">
         <v>43396</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="4">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="C27" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="4">
-        <v>43392</v>
-      </c>
-      <c r="E27" s="4">
-        <v>43396</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>42</v>
+      <c r="C28" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D28" s="4">
         <v>43392</v>
@@ -997,192 +1012,216 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43392</v>
+      </c>
+      <c r="E29" s="4">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13" t="s">
+      <c r="C30" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="C32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="4">
         <v>43394</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D33" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13" t="s">
+    <row r="35" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13" t="s">
+      <c r="C35" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13" t="s">
+      <c r="C36" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13" t="s">
+      <c r="C37" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D39" s="4">
         <v>43392</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="4">
+      <c r="C42" s="9"/>
+      <c r="D42" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="13"/>
+      <c r="B44" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="4">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+    <row r="48" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D48" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C49" xr:uid="{614BDEE0-955C-421E-9A3D-86656740B594}"/>
+  <autoFilter ref="C1:C51" xr:uid="{614BDEE0-955C-421E-9A3D-86656740B594}"/>
   <mergeCells count="7">
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D5 D7:D1048576">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="D8:D1048576 D1:D5">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1190,7 +1229,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1201,8 +1240,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="H42">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1211,8 +1250,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="F10">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1220,7 +1259,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1229,8 +1268,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E5 E7:E22 E24:E26 E29:E30 E32:E1048576">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="E8:E23 E1:E5 E25:E27 E30:E31 E33:E1048576">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1239,8 +1278,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1248,7 +1287,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1259,8 +1298,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="E6:E7">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1268,7 +1307,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1279,8 +1318,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="E24">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1288,7 +1327,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1299,8 +1338,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="E28">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1308,7 +1347,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1319,8 +1358,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1328,7 +1367,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1339,8 +1378,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E32">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1348,13 +1387,43 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8DFCA3-E5A0-4186-BABA-914FFFDEA338}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAFFC05-A989-4049-BB42-644DEC15F6C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="65">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -37,21 +37,12 @@
     <t>补发，撤销，意见的修改（同收文流程）</t>
   </si>
   <si>
-    <t>3、收文</t>
-  </si>
-  <si>
     <t>党办收文号：沪卫、区委办、其他（郑国芳）</t>
   </si>
   <si>
     <t>归档之后的流程补发操作有误</t>
   </si>
   <si>
-    <t>4、通讯录</t>
-  </si>
-  <si>
-    <t>5、印章</t>
-  </si>
-  <si>
     <t>党办流程:党办： 书记章，党工委章，纪工委的章</t>
   </si>
   <si>
@@ -88,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2、信访</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已修改</t>
   </si>
   <si>
@@ -254,11 +241,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>医疗结构院长申请提示错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗机构反映邮件发送不了</t>
+    <t>医疗机构反映邮件发送不了（间歇性网络慢）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信访</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗结构院长申请报错的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗机构院长申请报错的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,12 +321,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -423,6 +424,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -431,12 +435,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -736,63 +734,63 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>61</v>
+      <c r="A2" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4">
         <v>43396</v>
@@ -802,9 +800,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16" t="s">
-        <v>63</v>
+      <c r="A7" s="15"/>
+      <c r="B7" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="4">
@@ -812,151 +810,151 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
+      <c r="A8" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="C18" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="23" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D23" s="4">
         <v>43396</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4">
         <v>43396</v>
@@ -966,18 +964,18 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D25" s="4">
         <v>43396</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D26" s="4">
         <v>43396</v>
@@ -985,24 +983,24 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>8</v>
+      <c r="A28" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D28" s="4">
         <v>43392</v>
@@ -1012,12 +1010,12 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D29" s="4">
         <v>43392</v>
@@ -1027,30 +1025,30 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D32" s="4">
         <v>43394</v>
@@ -1059,145 +1057,151 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D33" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
       <c r="B35" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
       <c r="B36" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
       <c r="B37" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
       <c r="B38" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
       <c r="B39" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D39" s="4">
         <v>43392</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
+    <row r="40" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
       <c r="B44" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
       <c r="B45" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15" t="s">
-        <v>62</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D46" s="4">
         <v>43397</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="4">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D48" s="4">
         <v>43396</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1205,19 +1209,19 @@
     </row>
     <row r="51" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C51" xr:uid="{614BDEE0-955C-421E-9A3D-86656740B594}"/>
   <mergeCells count="7">
+    <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="A18:A26"/>
     <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D8:D1048576 D1:D5">

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAFFC05-A989-4049-BB42-644DEC15F6C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6532FF-F89E-4FC3-BAAE-81D8B63E1C88}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -261,11 +261,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>医疗结构院长申请报错的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>医疗机构院长申请报错的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送审节点选择保密审核没有人员信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +296,13 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -389,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -435,6 +442,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1059,7 +1069,7 @@
     </row>
     <row r="33" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="4">
@@ -1135,7 +1145,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
@@ -1145,83 +1155,93 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="4">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="4">
         <v>43397</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E47" s="4">
         <v>43397</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+    <row r="49" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D49" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+      <c r="B50" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C51" xr:uid="{614BDEE0-955C-421E-9A3D-86656740B594}"/>
+  <autoFilter ref="C1:C52" xr:uid="{614BDEE0-955C-421E-9A3D-86656740B594}"/>
   <mergeCells count="7">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A42"/>
     <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A34:A43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D8:D1048576 D1:D5">
@@ -1244,7 +1264,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H42:H43">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -1403,14 +1423,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1418,6 +1430,14 @@
         <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6532FF-F89E-4FC3-BAAE-81D8B63E1C88}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D5FA67-F2E5-4D6E-A655-333B797255C1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="64">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>医疗机构院长申请报错的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送审节点选择保密审核没有人员信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,13 +292,6 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -443,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -726,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1155,93 +1144,83 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="4">
-        <v>43398</v>
+      <c r="A43" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
-        <v>52</v>
+      <c r="A44" s="14"/>
+      <c r="B44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>17</v>
+      <c r="B45" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
+      <c r="A46" s="15"/>
+      <c r="B46" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="4">
+        <v>43397</v>
+      </c>
+      <c r="E46" s="4">
+        <v>43397</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="4">
-        <v>43397</v>
-      </c>
-      <c r="E47" s="4">
-        <v>43397</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="A47" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
+    <row r="48" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D48" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+      <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C52" xr:uid="{614BDEE0-955C-421E-9A3D-86656740B594}"/>
+  <autoFilter ref="C1:C51" xr:uid="{614BDEE0-955C-421E-9A3D-86656740B594}"/>
   <mergeCells count="7">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A34:A42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D8:D1048576 D1:D5">
@@ -1264,16 +1243,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42:H43">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="7" tint="0.79998168889431442"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
@@ -1449,6 +1418,16 @@
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.79998168889431442"/>
+        <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D5FA67-F2E5-4D6E-A655-333B797255C1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386EBE89-9FC4-4D6A-B3C8-02BDF7580EDE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -262,6 +262,10 @@
   </si>
   <si>
     <t>医疗机构院长申请报错的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送审节点选择保密审核没有人员信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +296,13 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -385,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -423,6 +434,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -432,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -715,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -749,7 +763,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -760,13 +774,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="10" t="s">
         <v>30</v>
       </c>
@@ -775,7 +789,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
@@ -784,7 +798,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="10" t="s">
         <v>56</v>
       </c>
@@ -799,7 +813,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="12" t="s">
         <v>58</v>
       </c>
@@ -809,7 +823,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -820,7 +834,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="10" t="s">
         <v>33</v>
       </c>
@@ -829,7 +843,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="10" t="s">
         <v>34</v>
       </c>
@@ -838,7 +852,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
@@ -847,13 +861,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="10" t="s">
         <v>29</v>
       </c>
@@ -862,13 +876,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="10" t="s">
         <v>37</v>
       </c>
@@ -877,7 +891,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="10" t="s">
         <v>28</v>
       </c>
@@ -886,7 +900,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -895,7 +909,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -906,7 +920,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
@@ -915,7 +929,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
@@ -924,7 +938,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="10" t="s">
         <v>4</v>
       </c>
@@ -933,13 +947,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
@@ -948,7 +962,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="10" t="s">
         <v>44</v>
       </c>
@@ -963,7 +977,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
@@ -972,7 +986,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
@@ -992,7 +1006,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -1009,7 +1023,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="10" t="s">
         <v>49</v>
       </c>
@@ -1024,7 +1038,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="10" t="s">
         <v>23</v>
       </c>
@@ -1033,7 +1047,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="10" t="s">
         <v>6</v>
       </c>
@@ -1042,7 +1056,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="10" t="s">
         <v>47</v>
       </c>
@@ -1057,8 +1071,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="4">
@@ -1066,12 +1080,12 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
       </c>
@@ -1080,7 +1094,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="10" t="s">
         <v>20</v>
       </c>
@@ -1089,7 +1103,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="10" t="s">
         <v>18</v>
       </c>
@@ -1098,7 +1112,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="10" t="s">
         <v>19</v>
       </c>
@@ -1107,7 +1121,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1130,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1139,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1134,7 +1148,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
@@ -1144,82 +1158,92 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="4">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="10" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
+      <c r="B45" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="1" t="s">
-        <v>12</v>
+      <c r="C45" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+      <c r="B47" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="4">
+      <c r="C47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="4">
         <v>43397</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E47" s="4">
         <v>43397</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+    <row r="49" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D49" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+      <c r="B50" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C51" xr:uid="{614BDEE0-955C-421E-9A3D-86656740B594}"/>
+  <autoFilter ref="C1:C52" xr:uid="{614BDEE0-955C-421E-9A3D-86656740B594}"/>
   <mergeCells count="7">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A44:A47"/>
     <mergeCell ref="A34:A42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1421,7 +1445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H42:H43">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386EBE89-9FC4-4D6A-B3C8-02BDF7580EDE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC2467A-AF9B-448D-8353-77FEE63E81CC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$53</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -266,6 +266,18 @@
   </si>
   <si>
     <t>送审节点选择保密审核没有人员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增一个外出专用的分管领导角色（孟庆安、何永祥、张燕尔、戴红勤、杨海健），直接提交自动关联下个节点主要领导。（孟庆安、何永祥对应李时珍；张燕尔、戴红勤、杨海健对应杨国威）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -404,50 +416,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,9 +747,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -739,515 +757,565 @@
   <cols>
     <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="10" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="3">
         <v>43396</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="4">
+      <c r="C7" s="17"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="3">
         <v>43397</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="10" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="10" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="10" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="10" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="10" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="10" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="10" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="10" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+    <row r="23" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="C24" s="16"/>
+      <c r="D24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="3">
         <v>43396</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
       <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
       <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="C28" s="16"/>
+      <c r="D28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="3">
         <v>43392</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="10" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="C29" s="16"/>
+      <c r="D29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="3">
         <v>43392</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="10" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="10" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="10" t="s">
+      <c r="C31" s="16"/>
+      <c r="D31" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="C32" s="16"/>
+      <c r="D32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="3">
         <v>43394</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17" t="s">
+    <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="4">
+      <c r="C33" s="18"/>
+      <c r="E33" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="10" t="s">
+    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="10" t="s">
+      <c r="C35" s="16"/>
+      <c r="D35" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="10" t="s">
+      <c r="C36" s="16"/>
+      <c r="D36" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="10" t="s">
+      <c r="C37" s="16"/>
+      <c r="D37" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="3">
         <v>43392</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
+    <row r="40" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
       <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
       <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="4">
+      <c r="D42" s="8"/>
+      <c r="E42" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="17" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="B43" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="4">
+      <c r="C43" s="18"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="10" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="10" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="4">
+      <c r="C47" s="16"/>
+      <c r="D47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="3">
         <v>43397</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="3">
         <v>43397</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="3">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+    <row r="50" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="4">
+      <c r="C50" s="19"/>
+      <c r="E50" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C52" xr:uid="{614BDEE0-955C-421E-9A3D-86656740B594}"/>
+  <autoFilter ref="A1:F53" xr:uid="{854723F9-0676-416C-97C5-93655873B6F9}"/>
   <mergeCells count="7">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="A44:A48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D8:D1048576 D1:D5">
+  <conditionalFormatting sqref="E8:E1048576 E1:E5">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -1267,7 +1335,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="G10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -1285,7 +1353,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E23 E1:E5 E25:E27 E30:E31 E33:E1048576">
+  <conditionalFormatting sqref="F8:F23 F1:F5 F25:F27 F30:F31 F33:F1048576">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -1295,7 +1363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
+  <conditionalFormatting sqref="E6:E7">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1315,7 +1383,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E7">
+  <conditionalFormatting sqref="F6:F7">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1335,7 +1403,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="F24">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1355,7 +1423,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="F28">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1375,7 +1443,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1395,7 +1463,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="F32">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1415,7 +1483,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1435,7 +1503,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1445,7 +1513,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42:H43">
+  <conditionalFormatting sqref="I42:I43">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC2467A-AF9B-448D-8353-77FEE63E81CC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$53</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -229,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卫监所的印章申请：在办公室下面添加一个账号给卫监所使用，此账号只给印章的菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发件箱列表查询数据有误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,17 +273,37 @@
   </si>
   <si>
     <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>卫监所的印章申请：在办公室下面添加一个账号给卫监所使用，此账号只给印章的菜单;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卫监所申请印章流程，科长审核节点办理人员默认为直属科室下行办公室的科长</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫监所投诉账号 门户首页，菜单设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +330,20 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -408,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -446,6 +475,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -455,17 +496,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,32 +771,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -772,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>14</v>
@@ -784,50 +816,50 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>57</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="18"/>
       <c r="B4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="18"/>
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="18"/>
       <c r="B6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="10" t="s">
         <v>36</v>
       </c>
@@ -838,161 +870,161 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="19"/>
       <c r="B7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="C7" s="14"/>
       <c r="D7" s="8"/>
       <c r="E7" s="3">
         <v>43397</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>59</v>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18"/>
       <c r="B9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="18"/>
       <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="18"/>
       <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="18"/>
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="18"/>
       <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="18"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:6">
+      <c r="A15" s="18"/>
       <c r="B15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="18"/>
       <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="19"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>60</v>
+    <row r="18" spans="1:6">
+      <c r="A18" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:6">
+      <c r="A19" s="18"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:6">
+      <c r="A20" s="18"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="18"/>
       <c r="B21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:6">
+      <c r="A22" s="18"/>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:6" ht="40.5">
+      <c r="A23" s="18"/>
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
@@ -1000,12 +1032,12 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:6">
+      <c r="A24" s="18"/>
       <c r="B24" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="10" t="s">
         <v>17</v>
       </c>
@@ -1016,8 +1048,8 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:6" ht="27">
+      <c r="A25" s="18"/>
       <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
@@ -1025,8 +1057,8 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+    <row r="26" spans="1:6">
+      <c r="A26" s="19"/>
       <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
@@ -1034,26 +1066,26 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>62</v>
+    <row r="28" spans="1:6">
+      <c r="A28" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="16"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1064,12 +1096,12 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="18"/>
       <c r="B29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="10" t="s">
         <v>17</v>
       </c>
@@ -1080,32 +1112,32 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:6">
+      <c r="A30" s="18"/>
       <c r="B30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+    <row r="31" spans="1:6">
+      <c r="A31" s="18"/>
       <c r="B31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:6">
+      <c r="A32" s="18"/>
       <c r="B32" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="16"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="10" t="s">
         <v>17</v>
       </c>
@@ -1116,63 +1148,66 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="18"/>
+    <row r="33" spans="1:6" ht="54">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E33" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:6" ht="27">
+      <c r="A35" s="18"/>
       <c r="B35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="16"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+    <row r="36" spans="1:6" ht="27">
+      <c r="A36" s="18"/>
       <c r="B36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="16"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+    <row r="37" spans="1:6" ht="54">
+      <c r="A37" s="18"/>
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="16"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+    <row r="38" spans="1:6">
+      <c r="A38" s="18"/>
       <c r="B38" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:6">
+      <c r="A39" s="18"/>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
@@ -1180,8 +1215,8 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+    <row r="40" spans="1:6" ht="27">
+      <c r="A40" s="18"/>
       <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1189,8 +1224,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+    <row r="41" spans="1:6">
+      <c r="A41" s="18"/>
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1198,8 +1233,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+    <row r="42" spans="1:6">
+      <c r="A42" s="18"/>
       <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
@@ -1208,44 +1243,49 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+    <row r="43" spans="1:6">
+      <c r="A43" s="19"/>
       <c r="B43" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E43" s="3">
         <v>43398</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="F43" s="3">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
+    <row r="45" spans="1:6">
+      <c r="A45" s="18"/>
       <c r="B45" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="16"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:6">
+      <c r="A46" s="18"/>
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
+    <row r="47" spans="1:6">
+      <c r="A47" s="18"/>
       <c r="B47" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="C47" s="13"/>
       <c r="D47" s="10" t="s">
         <v>17</v>
       </c>
@@ -1256,20 +1296,20 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+    <row r="48" spans="1:6" ht="54">
+      <c r="A48" s="19"/>
       <c r="B48" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
@@ -1277,34 +1317,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+    <row r="50" spans="1:6" ht="27">
+      <c r="A50" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="19"/>
+      <c r="C50" s="16"/>
       <c r="E50" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
+    <row r="51" spans="1:6">
+      <c r="A51" s="18"/>
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
-    </row>
-    <row r="53" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
+      <c r="A52" s="19"/>
+      <c r="B52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
+        <v>43398</v>
+      </c>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:6" ht="27">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F53" xr:uid="{854723F9-0676-416C-97C5-93655873B6F9}"/>
+  <autoFilter ref="A1:F53"/>
   <mergeCells count="7">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A17"/>
@@ -1316,19 +1367,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E8:E1048576 E1:E5">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1336,47 +1387,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="7" tint="0.79998168889431442"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="7" tint="0.79998168889431442"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F23 F1:F5 F25:F27 F30:F31 F33:F1048576">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1384,19 +1435,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1404,19 +1455,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1424,19 +1475,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1444,19 +1495,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1464,19 +1515,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1484,42 +1535,182 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:I43">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="7" tint="0.79998168889431442"/>
         <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$53</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -303,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,19 +346,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -369,6 +375,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -454,50 +478,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,7 +822,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -781,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -817,50 +868,50 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="18"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="18"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="3">
@@ -871,174 +922,182 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="3">
         <v>43397</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="18"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="18"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="18"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="23" t="s">
         <v>2</v>
       </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="18"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="23" t="s">
         <v>3</v>
       </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="18"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="18"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="19"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="18"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="18"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="18"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="18"/>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="23" t="s">
         <v>5</v>
       </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:6" ht="40.5">
-      <c r="A23" s="18"/>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="23" t="s">
         <v>43</v>
       </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="3">
         <v>43396</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="18"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="3">
@@ -1049,44 +1108,48 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="27">
-      <c r="A25" s="18"/>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="27" t="s">
         <v>45</v>
       </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="3">
         <v>43396</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="19"/>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="3">
         <v>43396</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="3">
@@ -1097,12 +1160,12 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="18"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="3">
@@ -1113,32 +1176,32 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="18"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="18"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="18"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="3">
@@ -1149,12 +1212,12 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="54">
-      <c r="A33" s="19"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="3">
@@ -1162,61 +1225,68 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27">
-      <c r="A35" s="18"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="27">
-      <c r="A36" s="18"/>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="10" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="54">
-      <c r="A37" s="18"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="18"/>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="10" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="18"/>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="8" t="s">
         <v>7</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E39" s="3">
         <v>43392</v>
       </c>
+      <c r="F39" s="3">
+        <v>43398</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="27">
-      <c r="A40" s="18"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1295,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="18"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1234,22 +1304,22 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="18"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="3">
         <v>43396</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="19"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="10" t="s">
+      <c r="C43" s="18"/>
+      <c r="D43" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="3">
@@ -1260,33 +1330,33 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="18"/>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="10" t="s">
+      <c r="C45" s="11"/>
+      <c r="D45" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="18"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="18"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="10" t="s">
+      <c r="C47" s="11"/>
+      <c r="D47" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="3">
@@ -1297,53 +1367,58 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="54">
-      <c r="A48" s="19"/>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="8"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="3">
         <v>43398</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="23" t="s">
         <v>10</v>
       </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
     </row>
     <row r="50" spans="1:6" ht="27">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="16"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="3">
         <v>43396</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="18"/>
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="13"/>
+      <c r="B51" s="23" t="s">
         <v>51</v>
       </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="19"/>
-      <c r="B52" s="1" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="3"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="E52" s="3">
         <v>43398</v>
       </c>
@@ -1367,7 +1442,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E8:E1048576 E1:E5">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1375,7 +1450,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1387,7 +1462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1395,7 +1470,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1405,7 +1480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F23 F1:F5 F25:F27 F30:F31 F33:F1048576">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1415,7 +1490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1423,7 +1498,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1435,7 +1510,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1443,7 +1518,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1455,7 +1530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1463,7 +1538,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1475,7 +1550,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1483,7 +1558,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1495,7 +1570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1503,7 +1578,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1515,7 +1590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1523,7 +1598,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1535,7 +1610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1545,7 +1620,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1555,7 +1630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1565,7 +1640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:I43">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1575,7 +1650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1583,7 +1658,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1595,7 +1670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1605,6 +1680,16 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1614,7 +1699,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="E52">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1623,7 +1708,17 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="10">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1635,17 +1730,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1655,7 +1740,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1664,17 +1749,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="F39">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1694,7 +1769,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="F39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -461,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -496,6 +496,48 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -504,51 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,7 +819,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -832,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -868,7 +865,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -880,13 +877,13 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
@@ -896,7 +893,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -906,7 +903,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="13"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="8" t="s">
         <v>55</v>
       </c>
@@ -922,18 +919,18 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="3">
         <v>43397</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -945,7 +942,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="13"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
@@ -955,7 +952,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="13"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
@@ -965,7 +962,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="13"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="8" t="s">
         <v>1</v>
       </c>
@@ -975,15 +972,15 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
         <v>29</v>
       </c>
@@ -993,15 +990,15 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="13"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="8" t="s">
         <v>37</v>
       </c>
@@ -1011,7 +1008,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="13"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
@@ -1021,7 +1018,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1031,7 +1028,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="26" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1043,7 +1040,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="13"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
@@ -1053,7 +1050,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="13"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1063,7 +1060,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="13"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
@@ -1073,26 +1070,26 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="13"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:6" ht="40.5">
-      <c r="A23" s="13"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="3">
         <v>43396</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="8" t="s">
         <v>44</v>
       </c>
@@ -1108,22 +1105,22 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="27">
-      <c r="A25" s="13"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="3">
         <v>43396</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="5"/>
       <c r="E26" s="3">
         <v>43396</v>
@@ -1142,7 +1139,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="26" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -1160,7 +1157,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="8" t="s">
         <v>49</v>
       </c>
@@ -1176,7 +1173,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="8" t="s">
         <v>23</v>
       </c>
@@ -1186,7 +1183,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="8" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1193,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="8" t="s">
         <v>47</v>
       </c>
@@ -1212,25 +1209,28 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="54">
-      <c r="A33" s="14"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22" t="s">
-        <v>38</v>
+      <c r="C33" s="18"/>
+      <c r="D33" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E33" s="3">
         <v>43396</v>
       </c>
+      <c r="F33" s="3">
+        <v>43398</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27">
-      <c r="A35" s="13"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="8" t="s">
         <v>21</v>
       </c>
@@ -1240,7 +1240,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="27">
-      <c r="A36" s="13"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="8" t="s">
         <v>20</v>
       </c>
@@ -1250,7 +1250,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="54">
-      <c r="A37" s="13"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="8" t="s">
         <v>18</v>
       </c>
@@ -1260,7 +1260,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="13"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="8" t="s">
         <v>19</v>
       </c>
@@ -1270,7 +1270,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="13"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="8" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1286,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="27">
-      <c r="A40" s="13"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1295,7 +1295,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="13"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="13"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
@@ -1314,12 +1314,12 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17" t="s">
+      <c r="A43" s="28"/>
+      <c r="B43" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="3">
@@ -1330,12 +1330,12 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="26" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="13"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="8" t="s">
         <v>35</v>
       </c>
@@ -1345,13 +1345,13 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="13"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="13"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="8" t="s">
         <v>62</v>
       </c>
@@ -1367,14 +1367,14 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="54">
-      <c r="A48" s="14"/>
-      <c r="B48" s="23" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="25"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="3">
         <v>43398</v>
       </c>
@@ -1383,40 +1383,40 @@
       <c r="A49" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="27">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="25"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="3">
         <v>43396</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="13"/>
-      <c r="B51" s="23" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="28"/>
+      <c r="B52" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16" t="s">
+      <c r="C52" s="13"/>
+      <c r="D52" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="3">
@@ -1442,15 +1442,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E8:E1048576 E1:E5">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1462,7 +1462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1470,7 +1470,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1480,7 +1480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F23 F1:F5 F25:F27 F30:F31 F33:F1048576">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1490,15 +1490,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1510,15 +1510,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1530,15 +1530,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1550,15 +1550,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1570,15 +1570,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1590,15 +1590,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1610,7 +1610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1620,7 +1620,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1630,7 +1630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1640,7 +1640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:I43">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1650,15 +1650,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1670,7 +1670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1680,6 +1680,16 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1690,11 +1700,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
@@ -1703,24 +1733,6 @@
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
@@ -1728,9 +1740,25 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1740,25 +1768,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1768,8 +1780,36 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C246BF9-0B7A-4DDC-8CFD-44AC7B435DA3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +14,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$53</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -299,11 +300,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,32 +820,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -864,7 +865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>56</v>
       </c>
@@ -876,13 +877,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
       <c r="B4" s="8" t="s">
         <v>30</v>
@@ -892,7 +893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="27"/>
       <c r="B5" s="8" t="s">
         <v>11</v>
@@ -902,7 +903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
       <c r="B6" s="8" t="s">
         <v>55</v>
@@ -918,7 +919,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="19" t="s">
         <v>57</v>
@@ -929,7 +930,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>58</v>
       </c>
@@ -941,7 +942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
       <c r="B9" s="8" t="s">
         <v>33</v>
@@ -951,7 +952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="8" t="s">
         <v>34</v>
@@ -961,7 +962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="27"/>
       <c r="B11" s="8" t="s">
         <v>1</v>
@@ -971,7 +972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="19" t="s">
         <v>2</v>
@@ -979,7 +980,7 @@
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
         <v>29</v>
@@ -989,7 +990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="19" t="s">
         <v>3</v>
@@ -997,7 +998,7 @@
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="8" t="s">
         <v>37</v>
@@ -1007,7 +1008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
       <c r="B16" s="8" t="s">
         <v>28</v>
@@ -1017,7 +1018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="8" t="s">
         <v>22</v>
@@ -1027,7 +1028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>59</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="8" t="s">
         <v>25</v>
@@ -1049,7 +1050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="8" t="s">
         <v>27</v>
@@ -1059,7 +1060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="8" t="s">
         <v>4</v>
@@ -1069,7 +1070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="19" t="s">
         <v>5</v>
@@ -1077,7 +1078,7 @@
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="40.5">
+    <row r="23" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="19" t="s">
         <v>43</v>
@@ -1088,7 +1089,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="8" t="s">
         <v>44</v>
@@ -1104,7 +1105,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="27">
+    <row r="25" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="23" t="s">
         <v>45</v>
@@ -1115,7 +1116,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="10" t="s">
         <v>46</v>
@@ -1126,7 +1127,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>60</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>61</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="8" t="s">
         <v>49</v>
@@ -1172,7 +1173,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="27"/>
       <c r="B30" s="8" t="s">
         <v>23</v>
@@ -1182,7 +1183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="27"/>
       <c r="B31" s="8" t="s">
         <v>6</v>
@@ -1192,7 +1193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="27"/>
       <c r="B32" s="8" t="s">
         <v>47</v>
@@ -1208,7 +1209,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="54">
+    <row r="33" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="17" t="s">
         <v>67</v>
@@ -1224,12 +1225,12 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="27">
+    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="27"/>
       <c r="B35" s="8" t="s">
         <v>21</v>
@@ -1239,7 +1240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="27">
+    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="27"/>
       <c r="B36" s="8" t="s">
         <v>20</v>
@@ -1249,7 +1250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="54">
+    <row r="37" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A37" s="27"/>
       <c r="B37" s="8" t="s">
         <v>18</v>
@@ -1259,7 +1260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="27"/>
       <c r="B38" s="8" t="s">
         <v>19</v>
@@ -1269,7 +1270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
       <c r="B39" s="8" t="s">
         <v>7</v>
@@ -1285,7 +1286,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="27">
+    <row r="40" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="27"/>
       <c r="B40" s="1" t="s">
         <v>8</v>
@@ -1294,7 +1295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="27"/>
       <c r="B41" s="1" t="s">
         <v>9</v>
@@ -1303,7 +1304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
       <c r="B42" s="1" t="s">
         <v>54</v>
@@ -1313,7 +1314,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="14" t="s">
         <v>63</v>
@@ -1329,12 +1330,12 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="27"/>
       <c r="B45" s="8" t="s">
         <v>35</v>
@@ -1344,13 +1345,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="27"/>
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="27"/>
       <c r="B47" s="8" t="s">
         <v>62</v>
@@ -1366,7 +1367,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="54">
+    <row r="48" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
       <c r="B48" s="19" t="s">
         <v>64</v>
@@ -1379,7 +1380,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>53</v>
       </c>
@@ -1389,7 +1390,7 @@
       <c r="C49" s="20"/>
       <c r="D49" s="21"/>
     </row>
-    <row r="50" spans="1:6" ht="27">
+    <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>39</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="27"/>
       <c r="B51" s="19" t="s">
         <v>51</v>
@@ -1410,7 +1411,7 @@
       <c r="C51" s="20"/>
       <c r="D51" s="21"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="28"/>
       <c r="B52" s="12" t="s">
         <v>68</v>
@@ -1422,15 +1423,17 @@
       <c r="E52" s="3">
         <v>43398</v>
       </c>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6" ht="27">
+      <c r="F52" s="3">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F53"/>
+  <autoFilter ref="A1:F53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A17"/>
@@ -1444,17 +1447,17 @@
   <conditionalFormatting sqref="E8:E1048576 E1:E5">
     <cfRule type="colorScale" priority="40">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1464,16 +1467,16 @@
   <conditionalFormatting sqref="G10">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="7" tint="0.79998168889431442"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="7" tint="0.79998168889431442"/>
         <color rgb="FFFF0000"/>
       </colorScale>
@@ -1482,8 +1485,8 @@
   <conditionalFormatting sqref="F8:F23 F1:F5 F25:F27 F30:F31 F33:F1048576">
     <cfRule type="colorScale" priority="39">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
@@ -1492,17 +1495,17 @@
   <conditionalFormatting sqref="E6:E7">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1512,17 +1515,17 @@
   <conditionalFormatting sqref="F6:F7">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="36">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1532,17 +1535,17 @@
   <conditionalFormatting sqref="F24">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1552,17 +1555,17 @@
   <conditionalFormatting sqref="F28">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1572,17 +1575,17 @@
   <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1592,17 +1595,17 @@
   <conditionalFormatting sqref="F32">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1612,9 +1615,9 @@
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1622,8 +1625,8 @@
     </cfRule>
     <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
@@ -1632,8 +1635,8 @@
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
@@ -1642,8 +1645,8 @@
   <conditionalFormatting sqref="I42:I43">
     <cfRule type="colorScale" priority="54">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color theme="7" tint="0.79998168889431442"/>
         <color rgb="FFFF0000"/>
       </colorScale>
@@ -1652,17 +1655,17 @@
   <conditionalFormatting sqref="F43">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1672,9 +1675,9 @@
   <conditionalFormatting sqref="F43">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1682,8 +1685,8 @@
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
@@ -1692,8 +1695,8 @@
   <conditionalFormatting sqref="E52">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
@@ -1702,8 +1705,8 @@
   <conditionalFormatting sqref="E52">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
@@ -1712,17 +1715,17 @@
   <conditionalFormatting sqref="E52">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1732,9 +1735,9 @@
   <conditionalFormatting sqref="E52">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1742,8 +1745,8 @@
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
@@ -1752,17 +1755,17 @@
   <conditionalFormatting sqref="F39">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1772,9 +1775,9 @@
   <conditionalFormatting sqref="F39">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1782,8 +1785,8 @@
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
@@ -1792,17 +1795,17 @@
   <conditionalFormatting sqref="F33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1812,9 +1815,9 @@
   <conditionalFormatting sqref="F33">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1822,8 +1825,8 @@
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C246BF9-0B7A-4DDC-8CFD-44AC7B435DA3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04F4C29-1394-46C3-AA67-2C57CEBAE9F0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$54</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -285,6 +285,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -294,6 +295,10 @@
   </si>
   <si>
     <t>卫监所投诉账号 门户首页，菜单设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信访管理菜单排序按照来电编号降序排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,6 +328,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -337,6 +343,7 @@
       <sz val="11"/>
       <color rgb="FF92D050"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -344,6 +351,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -356,6 +364,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -462,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -546,6 +555,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -828,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1034,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1029,21 +1044,22 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="3">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="9" t="s">
@@ -1053,7 +1069,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="9" t="s">
@@ -1063,7 +1079,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="8" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="9" t="s">
@@ -1072,95 +1088,89 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
-      <c r="B22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="19" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
-      <c r="E23" s="3">
-        <v>43396</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
-      <c r="B24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="B24" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="3">
         <v>43396</v>
       </c>
-      <c r="F24" s="3">
-        <v>43396</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
-      <c r="B25" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E25" s="3">
         <v>43396</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="5"/>
+      <c r="F25" s="3">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="3">
         <v>43396</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="3">
-        <v>43392</v>
-      </c>
-      <c r="F28" s="3">
-        <v>43396</v>
-      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
+      <c r="A29" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="B29" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="9" t="s">
@@ -1176,17 +1186,23 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="27"/>
       <c r="B30" s="8" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="E30" s="3">
+        <v>43392</v>
+      </c>
+      <c r="F30" s="3">
+        <v>43396</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="27"/>
       <c r="B31" s="8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="9" t="s">
@@ -1196,74 +1212,74 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="27"/>
       <c r="B32" s="8" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="3">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="3">
         <v>43394</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="17" t="s">
+    <row r="34" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="C34" s="18"/>
+      <c r="D34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="3">
         <v>43396</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="26" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="27"/>
       <c r="B36" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A37" s="27"/>
       <c r="B37" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A38" s="27"/>
       <c r="B38" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="9" t="s">
@@ -1273,32 +1289,33 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
       <c r="B39" s="8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="3">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="27"/>
+      <c r="B40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="3">
         <v>43392</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F40" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
-      <c r="B40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A41" s="27"/>
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>38</v>
@@ -1307,141 +1324,150 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
       <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="27"/>
+      <c r="B43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="3">
+      <c r="D43" s="7"/>
+      <c r="E43" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="14" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="28"/>
+      <c r="B44" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="C44" s="15"/>
+      <c r="D44" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="3">
         <v>43398</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F44" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="26" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="26" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="27"/>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
+      <c r="B46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="27"/>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="27"/>
+      <c r="B48" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="C48" s="11"/>
+      <c r="D48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="3">
         <v>43397</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F48" s="3">
         <v>43397</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="19" t="s">
+    <row r="49" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A49" s="28"/>
+      <c r="B49" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C49" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="3">
+      <c r="D49" s="21"/>
+      <c r="E49" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B50" s="19" t="s">
         <v>10</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="3">
-        <v>43396</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
+    </row>
+    <row r="51" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A51" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="B51" s="19" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="21"/>
+      <c r="E51" s="3">
+        <v>43396</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="28"/>
+      <c r="B53" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="C53" s="13"/>
+      <c r="D53" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="3">
         <v>43398</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F53" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A8:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E8:E1048576 E1:E5">
@@ -1482,7 +1508,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F23 F1:F5 F25:F27 F30:F31 F33:F1048576">
+  <conditionalFormatting sqref="F26:F28 F8:F24 F1:F5 F31:F32 F34:F1048576">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -1532,7 +1558,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F25">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -1552,7 +1578,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -1572,7 +1598,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="F30">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -1592,7 +1618,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+  <conditionalFormatting sqref="F33">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -1642,7 +1668,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:I43">
+  <conditionalFormatting sqref="I43:I44">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -1652,7 +1678,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="F44">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -1672,7 +1698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="F44">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -1692,7 +1718,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E53">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -1702,7 +1728,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E53">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1712,7 +1738,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E53">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1732,7 +1758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E53">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1752,7 +1778,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+  <conditionalFormatting sqref="F40">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1772,7 +1798,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+  <conditionalFormatting sqref="F40">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1792,7 +1818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="F34">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1812,7 +1838,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="F34">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04F4C29-1394-46C3-AA67-2C57CEBAE9F0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F26CBE5-28F6-4508-BD5B-88C39A92708C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$55</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -299,6 +299,10 @@
   </si>
   <si>
     <t>信访管理菜单排序按照来电编号降序排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发邮件后，原邮件附件丢失问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,6 +552,12 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -555,12 +565,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -843,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -881,7 +885,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -893,13 +897,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
@@ -909,7 +913,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -919,7 +923,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="8" t="s">
         <v>55</v>
       </c>
@@ -935,7 +939,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="19" t="s">
         <v>57</v>
       </c>
@@ -946,21 +950,22 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="3">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="9" t="s">
@@ -968,9 +973,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9" t="s">
@@ -978,9 +983,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="8" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="9" t="s">
@@ -988,45 +993,45 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="9" t="s">
@@ -1034,9 +1039,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="9" t="s">
@@ -1044,32 +1049,32 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="3">
+      <c r="C19" s="27"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="3">
         <v>43399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="9" t="s">
@@ -1077,9 +1082,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="9" t="s">
@@ -1087,9 +1092,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="8" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="9" t="s">
@@ -1097,96 +1102,90 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="19" t="s">
         <v>5</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
-      <c r="E24" s="3">
-        <v>43396</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="9" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="25" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="3">
         <v>43396</v>
       </c>
-      <c r="F25" s="3">
-        <v>43396</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E26" s="3">
         <v>43396</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="5"/>
+      <c r="F26" s="3">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="3">
         <v>43396</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="3">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="3">
-        <v>43392</v>
-      </c>
-      <c r="F29" s="3">
-        <v>43396</v>
-      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="B30" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="9" t="s">
@@ -1200,19 +1199,25 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="8" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="E31" s="3">
+        <v>43392</v>
+      </c>
+      <c r="F31" s="3">
+        <v>43396</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="9" t="s">
@@ -1220,76 +1225,76 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="8" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="3">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="3">
         <v>43394</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="17" t="s">
+    <row r="35" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
+      <c r="B35" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="C35" s="18"/>
+      <c r="D35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="3">
         <v>43396</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="8" t="s">
+    <row r="37" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
+    <row r="38" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A38" s="29"/>
       <c r="B38" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
+    <row r="39" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
       <c r="B39" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="9" t="s">
@@ -1297,180 +1302,190 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="3">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="29"/>
+      <c r="B41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="3">
         <v>43392</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F41" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A42" s="29"/>
+      <c r="B42" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="29"/>
+      <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="3">
+      <c r="D44" s="7"/>
+      <c r="E44" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="14" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="30"/>
+      <c r="B45" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="C45" s="15"/>
+      <c r="D45" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="3">
         <v>43398</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F45" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="8" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="29"/>
+      <c r="B47" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="11"/>
+      <c r="D47" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="29"/>
+      <c r="B48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="8" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="29"/>
+      <c r="B49" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="C49" s="11"/>
+      <c r="D49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="3">
         <v>43397</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F49" s="3">
         <v>43397</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="19" t="s">
+    <row r="50" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A50" s="30"/>
+      <c r="B50" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C50" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="3">
+      <c r="D50" s="21"/>
+      <c r="E50" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B51" s="19" t="s">
         <v>10</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="21"/>
-      <c r="E51" s="3">
-        <v>43396</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
+    </row>
+    <row r="52" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A52" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="B52" s="19" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="21"/>
+      <c r="E52" s="3">
+        <v>43396</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="29"/>
+      <c r="B53" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="30"/>
+      <c r="B54" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="C54" s="13"/>
+      <c r="D54" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="3">
         <v>43398</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F54" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="7">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A8:A18"/>
+    <mergeCell ref="A9:A19"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="A46:A50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E8:E1048576 E1:E5">
+  <conditionalFormatting sqref="E9:E1048576 E1:E5">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -1490,7 +1505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G11">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -1508,7 +1523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F28 F8:F24 F1:F5 F31:F32 F34:F1048576">
+  <conditionalFormatting sqref="F27:F29 F9:F25 F1:F5 F32:F33 F35:F1048576">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -1518,7 +1533,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E7">
+  <conditionalFormatting sqref="E6:E8">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -1538,7 +1553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F7">
+  <conditionalFormatting sqref="F6:F8">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -1558,7 +1573,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F26">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -1578,7 +1593,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="F30">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -1598,7 +1613,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="F31">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -1618,7 +1633,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="F34">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -1668,7 +1683,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:I44">
+  <conditionalFormatting sqref="I44:I45">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -1678,7 +1693,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+  <conditionalFormatting sqref="F45">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -1698,7 +1713,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+  <conditionalFormatting sqref="F45">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -1718,7 +1733,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E54">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -1728,7 +1743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E54">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1738,7 +1753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E54">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1758,7 +1773,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E54">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1778,7 +1793,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+  <conditionalFormatting sqref="F41">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1798,7 +1813,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+  <conditionalFormatting sqref="F41">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1818,7 +1833,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="F35">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1838,7 +1853,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="F35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F26CBE5-28F6-4508-BD5B-88C39A92708C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$55</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -309,11 +308,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -543,15 +542,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -565,6 +555,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -839,32 +835,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -884,8 +880,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -896,14 +892,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="26"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="26"/>
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
@@ -912,8 +908,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="26"/>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -922,8 +918,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="26"/>
       <c r="B6" s="8" t="s">
         <v>55</v>
       </c>
@@ -938,8 +934,8 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="26"/>
       <c r="B7" s="19" t="s">
         <v>57</v>
       </c>
@@ -949,19 +945,19 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="26" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="27"/>
+      <c r="B8" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="7"/>
       <c r="E8" s="3">
         <v>43399</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -972,8 +968,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="26"/>
       <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
@@ -982,8 +978,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
@@ -992,8 +988,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="26"/>
       <c r="B12" s="8" t="s">
         <v>1</v>
       </c>
@@ -1002,16 +998,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="26"/>
       <c r="B13" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="26"/>
       <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1020,16 +1016,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+    <row r="15" spans="1:6">
+      <c r="A15" s="26"/>
       <c r="B15" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="26"/>
       <c r="B16" s="8" t="s">
         <v>37</v>
       </c>
@@ -1038,8 +1034,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="26"/>
       <c r="B17" s="8" t="s">
         <v>28</v>
       </c>
@@ -1048,8 +1044,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="26"/>
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1058,19 +1054,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="26" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="27"/>
+      <c r="B19" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="7"/>
       <c r="E19" s="3">
         <v>43399</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1081,8 +1077,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="26"/>
       <c r="B21" s="8" t="s">
         <v>25</v>
       </c>
@@ -1091,8 +1087,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+    <row r="22" spans="1:6">
+      <c r="A22" s="26"/>
       <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1101,8 +1097,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+    <row r="23" spans="1:6">
+      <c r="A23" s="26"/>
       <c r="B23" s="8" t="s">
         <v>4</v>
       </c>
@@ -1111,16 +1107,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+    <row r="24" spans="1:6">
+      <c r="A24" s="26"/>
       <c r="B24" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+    <row r="25" spans="1:6" ht="40.5">
+      <c r="A25" s="26"/>
       <c r="B25" s="19" t="s">
         <v>43</v>
       </c>
@@ -1130,8 +1126,8 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+    <row r="26" spans="1:6">
+      <c r="A26" s="26"/>
       <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
@@ -1146,29 +1142,39 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="23" t="s">
+    <row r="27" spans="1:6" ht="27">
+      <c r="A27" s="26"/>
+      <c r="B27" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E27" s="3">
         <v>43396</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+      <c r="F27" s="3">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="27"/>
       <c r="B28" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="22"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E28" s="3">
         <v>43396</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="3">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="6" t="s">
         <v>60</v>
       </c>
@@ -1180,8 +1186,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1198,8 +1204,8 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
+    <row r="31" spans="1:6">
+      <c r="A31" s="26"/>
       <c r="B31" s="8" t="s">
         <v>49</v>
       </c>
@@ -1214,8 +1220,8 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
+    <row r="32" spans="1:6">
+      <c r="A32" s="26"/>
       <c r="B32" s="8" t="s">
         <v>23</v>
       </c>
@@ -1224,8 +1230,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+    <row r="33" spans="1:6">
+      <c r="A33" s="26"/>
       <c r="B33" s="8" t="s">
         <v>6</v>
       </c>
@@ -1234,8 +1240,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
+    <row r="34" spans="1:6">
+      <c r="A34" s="26"/>
       <c r="B34" s="8" t="s">
         <v>47</v>
       </c>
@@ -1250,8 +1256,8 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:6" ht="54">
+      <c r="A35" s="27"/>
       <c r="B35" s="17" t="s">
         <v>67</v>
       </c>
@@ -1266,13 +1272,13 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
+    <row r="37" spans="1:6" ht="27">
+      <c r="A37" s="26"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -1281,8 +1287,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
+    <row r="38" spans="1:6" ht="27">
+      <c r="A38" s="26"/>
       <c r="B38" s="8" t="s">
         <v>20</v>
       </c>
@@ -1291,8 +1297,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
+    <row r="39" spans="1:6" ht="54">
+      <c r="A39" s="26"/>
       <c r="B39" s="8" t="s">
         <v>18</v>
       </c>
@@ -1301,8 +1307,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
+    <row r="40" spans="1:6">
+      <c r="A40" s="26"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
@@ -1311,8 +1317,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
+    <row r="41" spans="1:6">
+      <c r="A41" s="26"/>
       <c r="B41" s="8" t="s">
         <v>7</v>
       </c>
@@ -1327,8 +1333,8 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
+    <row r="42" spans="1:6" ht="27">
+      <c r="A42" s="26"/>
       <c r="B42" s="1" t="s">
         <v>8</v>
       </c>
@@ -1336,8 +1342,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
+    <row r="43" spans="1:6">
+      <c r="A43" s="26"/>
       <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
@@ -1345,8 +1351,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
+    <row r="44" spans="1:6">
+      <c r="A44" s="26"/>
       <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
@@ -1355,8 +1361,8 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
+    <row r="45" spans="1:6">
+      <c r="A45" s="27"/>
       <c r="B45" s="14" t="s">
         <v>63</v>
       </c>
@@ -1371,13 +1377,13 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
+    <row r="47" spans="1:6">
+      <c r="A47" s="26"/>
       <c r="B47" s="8" t="s">
         <v>35</v>
       </c>
@@ -1386,14 +1392,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
+    <row r="48" spans="1:6">
+      <c r="A48" s="26"/>
       <c r="B48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
+    <row r="49" spans="1:6">
+      <c r="A49" s="26"/>
       <c r="B49" s="8" t="s">
         <v>62</v>
       </c>
@@ -1408,8 +1414,8 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A50" s="30"/>
+    <row r="50" spans="1:6" ht="54">
+      <c r="A50" s="27"/>
       <c r="B50" s="19" t="s">
         <v>64</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="6" t="s">
         <v>53</v>
       </c>
@@ -1431,8 +1437,8 @@
       <c r="C51" s="20"/>
       <c r="D51" s="21"/>
     </row>
-    <row r="52" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A52" s="28" t="s">
+    <row r="52" spans="1:6" ht="27">
+      <c r="A52" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B52" s="19" t="s">
@@ -1444,16 +1450,16 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
+    <row r="53" spans="1:6">
+      <c r="A53" s="26"/>
       <c r="B53" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="21"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
+    <row r="54" spans="1:6">
+      <c r="A54" s="27"/>
       <c r="B54" s="12" t="s">
         <v>68</v>
       </c>
@@ -1468,13 +1474,13 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="27">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F55"/>
   <mergeCells count="7">
     <mergeCell ref="A9:A19"/>
     <mergeCell ref="A2:A8"/>
@@ -1486,19 +1492,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E9:E1048576 E1:E5">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1506,47 +1512,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="7" tint="0.79998168889431442"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="7" tint="0.79998168889431442"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F29 F9:F25 F1:F5 F32:F33 F35:F1048576">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+  <conditionalFormatting sqref="F9:F25 F1:F5 F32:F33 F35:F1048576 F27:F29">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E8">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1554,19 +1560,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F8">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1574,19 +1580,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1594,19 +1600,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1614,19 +1620,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1634,19 +1640,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1654,59 +1660,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:I45">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color theme="7" tint="0.79998168889431442"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1714,59 +1720,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1774,39 +1780,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1814,39 +1820,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1854,20 +1860,100 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -548,6 +548,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -555,12 +561,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -835,7 +835,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -881,7 +881,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -893,13 +893,13 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="26"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="26"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
@@ -909,7 +909,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="26"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -919,7 +919,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="8" t="s">
         <v>55</v>
       </c>
@@ -935,7 +935,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="19" t="s">
         <v>57</v>
       </c>
@@ -946,18 +946,23 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="23" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="24"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="E8" s="3">
         <v>43399</v>
       </c>
+      <c r="F8" s="3">
+        <v>43399</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="27" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -969,7 +974,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="26"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
@@ -979,7 +984,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="26"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
@@ -989,7 +994,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="26"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="8" t="s">
         <v>1</v>
       </c>
@@ -999,7 +1004,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="26"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="19" t="s">
         <v>2</v>
       </c>
@@ -1007,7 +1012,7 @@
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1017,7 +1022,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="26"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="19" t="s">
         <v>3</v>
       </c>
@@ -1025,7 +1030,7 @@
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="26"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="8" t="s">
         <v>37</v>
       </c>
@@ -1035,7 +1040,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="26"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="8" t="s">
         <v>28</v>
       </c>
@@ -1045,7 +1050,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="26"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1055,7 +1060,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
         <v>69</v>
       </c>
@@ -1066,7 +1071,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1078,7 +1083,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="26"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="8" t="s">
         <v>25</v>
       </c>
@@ -1088,7 +1093,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="26"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1098,7 +1103,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="26"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="8" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1113,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="26"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="19" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1121,7 @@
       <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="40.5">
-      <c r="A25" s="26"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="19" t="s">
         <v>43</v>
       </c>
@@ -1127,7 +1132,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="26"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
@@ -1143,11 +1148,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="27">
-      <c r="A27" s="26"/>
-      <c r="B27" s="28" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="29"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="9" t="s">
         <v>17</v>
       </c>
@@ -1155,11 +1160,11 @@
         <v>43396</v>
       </c>
       <c r="F27" s="3">
-        <v>43398</v>
+        <v>43399</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="27"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="10" t="s">
         <v>46</v>
       </c>
@@ -1171,7 +1176,7 @@
         <v>43396</v>
       </c>
       <c r="F28" s="3">
-        <v>43398</v>
+        <v>43399</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1187,7 +1192,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="27" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1205,7 +1210,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="26"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="8" t="s">
         <v>49</v>
       </c>
@@ -1221,7 +1226,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="26"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="8" t="s">
         <v>23</v>
       </c>
@@ -1231,7 +1236,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="26"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="8" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1246,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="26"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="8" t="s">
         <v>47</v>
       </c>
@@ -1257,7 +1262,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="54">
-      <c r="A35" s="27"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="17" t="s">
         <v>67</v>
       </c>
@@ -1273,12 +1278,12 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="27">
-      <c r="A37" s="26"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -1288,7 +1293,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="27">
-      <c r="A38" s="26"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="8" t="s">
         <v>20</v>
       </c>
@@ -1298,7 +1303,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="54">
-      <c r="A39" s="26"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="8" t="s">
         <v>18</v>
       </c>
@@ -1308,7 +1313,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="26"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
@@ -1318,7 +1323,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="26"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="8" t="s">
         <v>7</v>
       </c>
@@ -1334,7 +1339,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="27">
-      <c r="A42" s="26"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="1" t="s">
         <v>8</v>
       </c>
@@ -1343,7 +1348,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="26"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1357,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="26"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
@@ -1362,7 +1367,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="27"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="14" t="s">
         <v>63</v>
       </c>
@@ -1378,12 +1383,12 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="26"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="8" t="s">
         <v>35</v>
       </c>
@@ -1393,13 +1398,13 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="26"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="26"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="8" t="s">
         <v>62</v>
       </c>
@@ -1415,7 +1420,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="54">
-      <c r="A50" s="27"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="19" t="s">
         <v>64</v>
       </c>
@@ -1438,7 +1443,7 @@
       <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="27">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B52" s="19" t="s">
@@ -1451,7 +1456,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="26"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="19" t="s">
         <v>51</v>
       </c>
@@ -1459,7 +1464,7 @@
       <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="27"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="12" t="s">
         <v>68</v>
       </c>
@@ -1492,15 +1497,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E9:E1048576 E1:E5">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1512,7 +1517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1520,7 +1525,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1530,147 +1535,147 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F25 F1:F5 F32:F33 F35:F1048576 F27:F29">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E8">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F8">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E8">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F8">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1680,7 +1685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1690,7 +1695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:I45">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1700,66 +1705,226 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1779,7 +1944,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+  <conditionalFormatting sqref="F28">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1799,7 +1964,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1819,7 +1984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1839,7 +2004,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+  <conditionalFormatting sqref="F28">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1859,42 +2024,42 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+  <conditionalFormatting sqref="F28">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
@@ -1903,23 +2068,23 @@
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1939,7 +2104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="F27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$57</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -302,6 +302,14 @@
   </si>
   <si>
     <t>转发邮件后，原邮件附件丢失问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收文根据父级文件夹获取数据不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员节点根据文件类型获取办理的管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +843,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -843,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -855,7 +863,7 @@
     <col min="2" max="2" width="46.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1164,348 +1172,370 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="29"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="3">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="28"/>
+      <c r="B29" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="3">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="29"/>
+      <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="C30" s="22"/>
+      <c r="D30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="3">
         <v>43396</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F30" s="3">
         <v>43399</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="6" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="3">
-        <v>43392</v>
-      </c>
-      <c r="F30" s="3">
-        <v>43396</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="28"/>
-      <c r="B31" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="3">
-        <v>43392</v>
-      </c>
-      <c r="F31" s="3">
-        <v>43396</v>
-      </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="28"/>
+      <c r="A32" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="B32" s="8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="E32" s="3">
+        <v>43392</v>
+      </c>
+      <c r="F32" s="3">
+        <v>43396</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="28"/>
       <c r="B33" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="E33" s="3">
+        <v>43392</v>
+      </c>
+      <c r="F33" s="3">
+        <v>43396</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="28"/>
       <c r="B34" s="8" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="3">
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="28"/>
+      <c r="B35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="28"/>
+      <c r="B36" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="3">
         <v>43394</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F36" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="54">
-      <c r="A35" s="29"/>
-      <c r="B35" s="17" t="s">
+    <row r="37" spans="1:6" ht="54">
+      <c r="A37" s="29"/>
+      <c r="B37" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="C37" s="18"/>
+      <c r="D37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="3">
         <v>43396</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F37" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="27" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="27">
-      <c r="A37" s="28"/>
-      <c r="B37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="27">
-      <c r="A38" s="28"/>
-      <c r="B38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="54">
+    <row r="39" spans="1:6" ht="27">
       <c r="A39" s="28"/>
       <c r="B39" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="27">
       <c r="A40" s="28"/>
       <c r="B40" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="54">
       <c r="A41" s="28"/>
       <c r="B41" s="8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="3">
-        <v>43392</v>
-      </c>
-      <c r="F41" s="3">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="27">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="28"/>
-      <c r="B42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>38</v>
+      <c r="B42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="28"/>
-      <c r="B43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="B43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="3">
+        <v>43392</v>
+      </c>
+      <c r="F43" s="3">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="27">
       <c r="A44" s="28"/>
       <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="28"/>
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="28"/>
+      <c r="B46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="3">
+      <c r="D46" s="7"/>
+      <c r="E46" s="3">
         <v>43396</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="29"/>
-      <c r="B45" s="14" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" s="29"/>
+      <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="C47" s="15"/>
+      <c r="D47" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="3">
         <v>43398</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F47" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="27" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="27" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="28"/>
-      <c r="B47" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="28"/>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="28"/>
       <c r="B49" s="8" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="3">
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="28"/>
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="28"/>
+      <c r="B51" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="3">
         <v>43397</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F51" s="3">
         <v>43397</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="54">
-      <c r="A50" s="29"/>
-      <c r="B50" s="19" t="s">
+    <row r="52" spans="1:6" ht="54">
+      <c r="A52" s="29"/>
+      <c r="B52" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C52" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="3">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="27">
-      <c r="A52" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="20"/>
       <c r="D52" s="21"/>
       <c r="E52" s="3">
-        <v>43396</v>
+        <v>43398</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="28"/>
+      <c r="A53" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="B53" s="19" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="21"/>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="29"/>
-      <c r="B54" s="12" t="s">
+    <row r="54" spans="1:6" ht="27">
+      <c r="A54" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="3">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="28"/>
+      <c r="B55" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="29"/>
+      <c r="B56" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="3">
         <v>43398</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F56" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="27">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:6" ht="27">
+      <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F55"/>
+  <autoFilter ref="A1:F57"/>
   <mergeCells count="7">
     <mergeCell ref="A9:A19"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="A48:A52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E9:E1048576 E1:E5">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="69">
+  <conditionalFormatting sqref="E1:E5 E9:E1048576">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1517,7 +1547,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1525,7 +1555,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1534,8 +1564,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F25 F1:F5 F32:F33 F35:F1048576 F27:F29">
-    <cfRule type="colorScale" priority="63">
+  <conditionalFormatting sqref="F34:F35 F9:F25 F1:F5 F37:F1048576 F27:F31">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1545,15 +1575,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E8">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1565,15 +1595,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F8">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="60">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1585,75 +1615,75 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1665,17 +1695,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1685,17 +1715,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:I45">
-    <cfRule type="colorScale" priority="78">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:I47">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1704,67 +1734,307 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+  <conditionalFormatting sqref="F47">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F29">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F29">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1784,67 +2054,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+  <conditionalFormatting sqref="F30">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F29">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F29">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1864,7 +2134,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+  <conditionalFormatting sqref="F27:F29">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1884,7 +2154,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1893,78 +2173,68 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1984,7 +2254,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2004,7 +2274,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="E28">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2013,18 +2293,8 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2044,7 +2314,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="E28">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2064,7 +2334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2084,7 +2354,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2104,7 +2374,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/黄浦卫计委OA/卫计委运行期间优化.xlsx
+++ b/黄浦卫计委OA/卫计委运行期间优化.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>发件箱收件人排序（已修改待提交）</t>
   </si>
@@ -843,7 +843,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1188,8 +1188,13 @@
         <v>71</v>
       </c>
       <c r="C29" s="26"/>
-      <c r="D29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E29" s="3">
+        <v>43402</v>
+      </c>
+      <c r="F29" s="3">
         <v>43402</v>
       </c>
     </row>
@@ -1487,11 +1492,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="28"/>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="21"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="3">
+        <v>43402</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="29"/>
@@ -1527,15 +1537,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1:E5 E9:E1048576">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="93">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1547,7 +1557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="colorScale" priority="89">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1555,7 +1565,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1564,148 +1574,148 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F35 F9:F25 F1:F5 F37:F1048576 F27:F31">
+  <conditionalFormatting sqref="F34:F35 F9:F25 F1:F5 F27:F31 F37:F1048576">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E8">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F8">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E8">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F8">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="73">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1715,7 +1725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="72">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1725,7 +1735,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:I47">
-    <cfRule type="colorScale" priority="102">
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1735,66 +1745,226 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F29">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F29">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1814,7 +1984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
+  <conditionalFormatting sqref="F30">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1834,7 +2004,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1854,7 +2024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1874,7 +2044,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="F30">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1894,42 +2064,42 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="F30">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F29">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
@@ -1938,23 +2108,23 @@
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F29">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1974,7 +2144,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="F27:F29">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1994,7 +2164,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2003,58 +2183,48 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2074,47 +2244,57 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F29">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F29">
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2123,38 +2303,38 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F29">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2164,17 +2344,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E28">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2194,47 +2364,47 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E28">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFCFCFF"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2254,7 +2424,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2274,7 +2444,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2284,7 +2454,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2294,7 +2464,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2314,7 +2484,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2334,7 +2504,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2354,7 +2524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2374,7 +2544,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
